--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -25,49 +25,85 @@
     <t>Pass Word</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>周龙飞</t>
-  </si>
-  <si>
-    <t>330881200003083716</t>
-  </si>
-  <si>
-    <t>dragonfly000308</t>
+    <t>SXXK</t>
+  </si>
+  <si>
+    <t>YWXK</t>
+  </si>
+  <si>
+    <t>YYXK</t>
+  </si>
+  <si>
+    <t>SZXK</t>
+  </si>
+  <si>
+    <t>LSXK</t>
+  </si>
+  <si>
+    <t>DLXK</t>
+  </si>
+  <si>
+    <t>WLXK</t>
+  </si>
+  <si>
+    <t>HXXK</t>
+  </si>
+  <si>
+    <t>SWXK</t>
+  </si>
+  <si>
+    <t>JSXK</t>
+  </si>
+  <si>
+    <t>SZXN</t>
+  </si>
+  <si>
+    <t>LSXN</t>
+  </si>
+  <si>
+    <t>DLXN</t>
+  </si>
+  <si>
+    <t>WLXN</t>
+  </si>
+  <si>
+    <t>HXXN</t>
+  </si>
+  <si>
+    <t>SWXN</t>
+  </si>
+  <si>
+    <t>JSXN</t>
+  </si>
+  <si>
+    <t>熊雨欣</t>
+  </si>
+  <si>
+    <t>33088120000816892X</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91</t>
+  </si>
+  <si>
     <t>王玺</t>
   </si>
   <si>
     <t>33088120001013004X</t>
   </si>
   <si>
-    <t>20001013wx</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>熊雨欣</t>
-  </si>
-  <si>
-    <t>33088120000816892X</t>
-  </si>
-  <si>
-    <t>20000816xyx</t>
+    <t xml:space="preserve"> 88</t>
   </si>
 </sst>
 </file>
@@ -132,7 +168,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -147,9 +183,6 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -457,21 +490,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
+      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="11.0714285714286"/>
-    <col customWidth="1" max="2" min="2" style="2" width="28.6173469387755"/>
-    <col customWidth="1" max="3" min="3" style="6" width="13.5"/>
-    <col customWidth="1" max="1025" min="4" style="6" width="11.0714285714286"/>
+    <col customWidth="1" max="1" min="1" style="5" width="9.852040816326531"/>
+    <col customWidth="1" max="2" min="2" style="2" width="25.6479591836735"/>
+    <col customWidth="1" max="3" min="3" style="5" width="14.3112244897959"/>
+    <col customWidth="1" max="1025" min="4" style="5" width="9.852040816326531"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="7" spans="1:7">
+    <row customHeight="1" ht="12.8" r="1" s="6" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -481,75 +514,431 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="7" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="6" spans="1:20">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="7" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="n"/>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="6" spans="1:20">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1746900256</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="7" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="5" t="n"/>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="6" spans="1:20">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5" t="n"/>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="6" spans="1:20">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="6" spans="1:20">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1746900256</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="6" spans="1:20">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="6" spans="1:20">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="6" spans="1:20">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1746900256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="6" spans="1:20">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="6" spans="1:20">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="6" spans="1:20">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1746900256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="6" spans="1:20">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -14,84 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Identity ID</t>
-  </si>
-  <si>
-    <t>Pass Word</t>
-  </si>
-  <si>
-    <t>SXXK</t>
-  </si>
-  <si>
-    <t>YWXK</t>
-  </si>
-  <si>
-    <t>YYXK</t>
-  </si>
-  <si>
-    <t>SZXK</t>
-  </si>
-  <si>
-    <t>LSXK</t>
-  </si>
-  <si>
-    <t>DLXK</t>
-  </si>
-  <si>
-    <t>WLXK</t>
-  </si>
-  <si>
-    <t>HXXK</t>
-  </si>
-  <si>
-    <t>SWXK</t>
-  </si>
-  <si>
-    <t>JSXK</t>
-  </si>
-  <si>
-    <t>SZXN</t>
-  </si>
-  <si>
-    <t>LSXN</t>
-  </si>
-  <si>
-    <t>DLXN</t>
-  </si>
-  <si>
-    <t>WLXN</t>
-  </si>
-  <si>
-    <t>HXXN</t>
-  </si>
-  <si>
-    <t>SWXN</t>
-  </si>
-  <si>
-    <t>JSXN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>熊雨欣</t>
   </si>
   <si>
     <t>33088120000816892X</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91</t>
   </si>
   <si>
     <t>王玺</t>
@@ -100,24 +28,34 @@
     <t>33088120001013004X</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="General" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
       <name val="Noto Sans CJK SC Regular"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -138,7 +76,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -168,23 +105,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -490,455 +415,2468 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A2:T193"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11:C13"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A13" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E21" activeCellId="0" pane="topLeft" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="9.852040816326531"/>
-    <col customWidth="1" max="2" min="2" style="2" width="25.6479591836735"/>
-    <col customWidth="1" max="3" min="3" style="5" width="14.3112244897959"/>
-    <col customWidth="1" max="1025" min="4" style="5" width="9.852040816326531"/>
+    <col customWidth="1" max="1" min="1" style="2" width="11.5204081632653"/>
+    <col customWidth="1" max="2" min="2" style="2" width="32.7857142857143"/>
+    <col customWidth="1" max="1025" min="3" style="2" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="6" spans="1:20">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:20">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:20">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="T3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:20">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="6" spans="1:20">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>1746900680</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="5" t="n"/>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="6" spans="1:20">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1746900256</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="n"/>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="6" spans="1:20">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1746900680</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="5" t="n"/>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="6" spans="1:20">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="n">
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:20">
+      <c r="A5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>1746900680</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="6" spans="1:20">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:20">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>1746900256</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="7" s="6" spans="1:20">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:20">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>1746900680</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="8" s="6" spans="1:20">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:20">
+      <c r="A8" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>1746900680</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="6" spans="1:20">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:20">
+      <c r="A9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>1746900256</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="10" s="6" spans="1:20">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:20">
+      <c r="A10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>1746900680</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="11" s="6" spans="1:20">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:20">
+      <c r="A11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>1746900680</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="12" s="6" spans="1:20">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:20">
+      <c r="A12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>1746900256</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="13" s="6" spans="1:20">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:20">
+      <c r="A13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>1746900680</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T13" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:20">
+      <c r="A14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:20">
+      <c r="A15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:20">
+      <c r="A16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:20">
+      <c r="A17" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:20">
+      <c r="A18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:20">
+      <c r="A19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="20" s="2" spans="1:20">
+      <c r="A20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="21" s="2" spans="1:20">
+      <c r="A21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:20">
+      <c r="A22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="23" s="2" spans="1:20">
+      <c r="A23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="24" s="2" spans="1:20">
+      <c r="A24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="25" s="2" spans="1:20">
+      <c r="A25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="26" s="2" spans="1:20">
+      <c r="A26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="27" s="2" spans="1:20">
+      <c r="A27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="28" s="2" spans="1:20">
+      <c r="A28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="29" s="2" spans="1:20">
+      <c r="A29" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="30" s="2" spans="1:20">
+      <c r="A30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="31" s="2" spans="1:20">
+      <c r="A31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="32" s="2" spans="1:20">
+      <c r="A32" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="33" s="2" spans="1:20">
+      <c r="A33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="34" s="2" spans="1:20">
+      <c r="A34" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="35" s="2" spans="1:20">
+      <c r="A35" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="36" s="2" spans="1:20">
+      <c r="A36" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="37" s="2" spans="1:20">
+      <c r="A37" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="38" s="2" spans="1:20">
+      <c r="A38" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="39" s="2" spans="1:20">
+      <c r="A39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="40" s="2" spans="1:20">
+      <c r="A40" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="41" s="2" spans="1:20">
+      <c r="A41" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="42" s="2" spans="1:20">
+      <c r="A42" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="43" s="2" spans="1:20">
+      <c r="A43" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="44" s="2" spans="1:20">
+      <c r="A44" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="45" s="2" spans="1:20">
+      <c r="A45" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="46" s="2" spans="1:20">
+      <c r="A46" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="47" s="2" spans="1:20">
+      <c r="A47" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="48" s="2" spans="1:20">
+      <c r="A48" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="49" s="2" spans="1:20">
+      <c r="A49" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="50" s="2" spans="1:20">
+      <c r="A50" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="51" s="2" spans="1:20">
+      <c r="A51" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="52" s="2" spans="1:20">
+      <c r="A52" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="53" s="2" spans="1:20">
+      <c r="A53" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="54" s="2" spans="1:20">
+      <c r="A54" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="55" s="2" spans="1:20">
+      <c r="A55" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="56" s="2" spans="1:20">
+      <c r="A56" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="57" s="2" spans="1:20">
+      <c r="A57" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="58" s="2" spans="1:20">
+      <c r="A58" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="59" s="2" spans="1:20">
+      <c r="A59" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="60" s="2" spans="1:20">
+      <c r="A60" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="61" s="2" spans="1:20">
+      <c r="A61" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="62" s="2" spans="1:20">
+      <c r="A62" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="63" s="2" spans="1:20">
+      <c r="A63" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="64" s="2" spans="1:20">
+      <c r="A64" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="65" s="2" spans="1:20">
+      <c r="A65" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="66" s="2" spans="1:20">
+      <c r="A66" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="67" s="2" spans="1:20">
+      <c r="A67" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="68" s="2" spans="1:20">
+      <c r="A68" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="69" s="2" spans="1:20">
+      <c r="A69" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="70" s="2" spans="1:20">
+      <c r="A70" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="71" s="2" spans="1:20">
+      <c r="A71" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="72" s="2" spans="1:20">
+      <c r="A72" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="73" s="2" spans="1:20">
+      <c r="A73" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="74" s="2" spans="1:20">
+      <c r="A74" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="75" s="2" spans="1:20">
+      <c r="A75" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="76" s="2" spans="1:20">
+      <c r="A76" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="77" s="2" spans="1:20">
+      <c r="A77" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="78" s="2" spans="1:20">
+      <c r="A78" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="79" s="2" spans="1:20">
+      <c r="A79" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="80" s="2" spans="1:20">
+      <c r="A80" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="81" s="2" spans="1:20">
+      <c r="A81" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="82" s="2" spans="1:20">
+      <c r="A82" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="83" s="2" spans="1:20">
+      <c r="A83" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="84" s="2" spans="1:20">
+      <c r="A84" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="85" s="2" spans="1:20">
+      <c r="A85" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="86" s="2" spans="1:20">
+      <c r="A86" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="87" s="2" spans="1:20">
+      <c r="A87" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="88" s="2" spans="1:20">
+      <c r="A88" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="89" s="2" spans="1:20">
+      <c r="A89" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="90" s="2" spans="1:20">
+      <c r="A90" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="91" s="2" spans="1:20">
+      <c r="A91" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="92" s="2" spans="1:20">
+      <c r="A92" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="93" s="2" spans="1:20">
+      <c r="A93" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="94" s="2" spans="1:20">
+      <c r="A94" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="95" s="2" spans="1:20">
+      <c r="A95" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="96" s="2" spans="1:20">
+      <c r="A96" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="97" s="2" spans="1:20">
+      <c r="A97" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="98" s="2" spans="1:20">
+      <c r="A98" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="99" s="2" spans="1:20">
+      <c r="A99" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="100" s="2" spans="1:20">
+      <c r="A100" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="101" s="2" spans="1:20">
+      <c r="A101" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="102" s="2" spans="1:20">
+      <c r="A102" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="103" s="2" spans="1:20">
+      <c r="A103" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="104" s="2" spans="1:20">
+      <c r="A104" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="105" s="2" spans="1:20">
+      <c r="A105" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="106" s="2" spans="1:20">
+      <c r="A106" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="107" s="2" spans="1:20">
+      <c r="A107" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="108" s="2" spans="1:20">
+      <c r="A108" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="109" s="2" spans="1:20">
+      <c r="A109" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="110" s="2" spans="1:20">
+      <c r="A110" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="111" s="2" spans="1:20">
+      <c r="A111" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="112" s="2" spans="1:20">
+      <c r="A112" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="113" s="2" spans="1:20">
+      <c r="A113" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="114" s="2" spans="1:20">
+      <c r="A114" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="115" s="2" spans="1:20">
+      <c r="A115" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="116" s="2" spans="1:20">
+      <c r="A116" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="117" s="2" spans="1:20">
+      <c r="A117" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="118" s="2" spans="1:20">
+      <c r="A118" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="119" s="2" spans="1:20">
+      <c r="A119" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="120" s="2" spans="1:20">
+      <c r="A120" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="121" s="2" spans="1:20">
+      <c r="A121" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="122" s="2" spans="1:20">
+      <c r="A122" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="123" s="2" spans="1:20">
+      <c r="A123" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="124" s="2" spans="1:20">
+      <c r="A124" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="125" s="2" spans="1:20">
+      <c r="A125" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="126" s="2" spans="1:20">
+      <c r="A126" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="127" s="2" spans="1:20">
+      <c r="A127" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="128" s="2" spans="1:20">
+      <c r="A128" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="129" s="2" spans="1:20">
+      <c r="A129" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="130" s="2" spans="1:20">
+      <c r="A130" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="131" s="2" spans="1:20">
+      <c r="A131" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="132" s="2" spans="1:20">
+      <c r="A132" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="133" s="2" spans="1:20">
+      <c r="A133" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="134" s="2" spans="1:20">
+      <c r="A134" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="135" s="2" spans="1:20">
+      <c r="A135" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="136" s="2" spans="1:20">
+      <c r="A136" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="137" s="2" spans="1:20">
+      <c r="A137" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="138" s="2" spans="1:20">
+      <c r="A138" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="139" s="2" spans="1:20">
+      <c r="A139" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="140" s="2" spans="1:20">
+      <c r="A140" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="141" s="2" spans="1:20">
+      <c r="A141" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="142" s="2" spans="1:20">
+      <c r="A142" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="143" s="2" spans="1:20">
+      <c r="A143" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="144" s="2" spans="1:20">
+      <c r="A144" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="145" s="2" spans="1:20">
+      <c r="A145" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="146" s="2" spans="1:20">
+      <c r="A146" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="147" s="2" spans="1:20">
+      <c r="A147" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="148" s="2" spans="1:20">
+      <c r="A148" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="149" s="2" spans="1:20">
+      <c r="A149" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="150" s="2" spans="1:20">
+      <c r="A150" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="151" s="2" spans="1:20">
+      <c r="A151" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="152" s="2" spans="1:20">
+      <c r="A152" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="153" s="2" spans="1:20">
+      <c r="A153" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="154" s="2" spans="1:20">
+      <c r="A154" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="155" s="2" spans="1:20">
+      <c r="A155" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="156" s="2" spans="1:20">
+      <c r="A156" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="157" s="2" spans="1:20">
+      <c r="A157" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="158" s="2" spans="1:20">
+      <c r="A158" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="159" s="2" spans="1:20">
+      <c r="A159" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="160" s="2" spans="1:20">
+      <c r="A160" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="161" s="2" spans="1:20">
+      <c r="A161" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="162" s="2" spans="1:20">
+      <c r="A162" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="163" s="2" spans="1:20">
+      <c r="A163" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="164" s="2" spans="1:20">
+      <c r="A164" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="165" s="2" spans="1:20">
+      <c r="A165" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="166" s="2" spans="1:20">
+      <c r="A166" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="167" s="2" spans="1:20">
+      <c r="A167" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="168" s="2" spans="1:20">
+      <c r="A168" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="169" s="2" spans="1:20">
+      <c r="A169" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="170" s="2" spans="1:20">
+      <c r="A170" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="171" s="2" spans="1:20">
+      <c r="A171" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="172" s="2" spans="1:20">
+      <c r="A172" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="173" s="2" spans="1:20">
+      <c r="A173" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="174" s="2" spans="1:20">
+      <c r="A174" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="175" s="2" spans="1:20">
+      <c r="A175" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="176" s="2" spans="1:20">
+      <c r="A176" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="177" s="2" spans="1:20">
+      <c r="A177" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="178" s="2" spans="1:20">
+      <c r="A178" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="179" s="2" spans="1:20">
+      <c r="A179" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="180" s="2" spans="1:20">
+      <c r="A180" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="181" s="2" spans="1:20">
+      <c r="A181" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="182" s="2" spans="1:20">
+      <c r="A182" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="183" s="2" spans="1:20">
+      <c r="A183" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="184" s="2" spans="1:20">
+      <c r="A184" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="185" s="2" spans="1:20">
+      <c r="A185" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="186" s="2" spans="1:20">
+      <c r="A186" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="187" s="2" spans="1:20">
+      <c r="A187" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="188" s="2" spans="1:20">
+      <c r="A188" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="189" s="2" spans="1:20">
+      <c r="A189" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="190" s="2" spans="1:20">
+      <c r="A190" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="191" s="2" spans="1:20">
+      <c r="A191" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>1746900680</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="192" s="2" spans="1:20">
+      <c r="A192" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>1746900256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="193" s="2" spans="1:20">
+      <c r="A193" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>1746900680</v>
       </c>
     </row>
   </sheetData>
